--- a/ExperimentalData/Classeur1.xlsx
+++ b/ExperimentalData/Classeur1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDickes\Google Drive\PhD\SFERA II\PSA_SFERAII_gitHub\ExperimentalData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RDickes\Documents\GitHub\PSA_SFERAII_gitHub.git\ExperimentalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>TEST #</t>
   </si>
@@ -33,9 +33,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>FILENAME</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -60,17 +57,50 @@
     <t>27_06_2016_bis.txt</t>
   </si>
   <si>
-    <t>First datafile with no test</t>
-  </si>
-  <si>
-    <t>27_06_2016.text</t>
+    <t xml:space="preserve">Para hoy, me gustaria hacer : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M_dot_htf_su </t>
+  </si>
+  <si>
+    <t>30 % M_dot_max</t>
+  </si>
+  <si>
+    <t>50% M_dot_max</t>
+  </si>
+  <si>
+    <t>100% M_dot_max</t>
+  </si>
+  <si>
+    <t>T_htf_su</t>
+  </si>
+  <si>
+    <t>200°C</t>
+  </si>
+  <si>
+    <t>250°C</t>
+  </si>
+  <si>
+    <t>300°C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESPERERAR 5-10 minutos para todos los puntos </t>
+  </si>
+  <si>
+    <t>M_dot_htfsu</t>
+  </si>
+  <si>
+    <t>30 % M_dot_max (or M_dot_htf_min)</t>
+  </si>
+  <si>
+    <t>50 % M_dot_max (or M_dot_htf_min)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,13 +108,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -110,6 +159,9 @@
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,43 +442,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2">
-        <v>42548</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -448,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -457,27 +840,27 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
         <v>42548</v>
@@ -489,7 +872,7 @@
         <v>9.0231481481481482E-2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/ExperimentalData/Classeur1.xlsx
+++ b/ExperimentalData/Classeur1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t>TEST #</t>
   </si>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -805,6 +805,71 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6">
         <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D43" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
